--- a/mcm2014/result/summary.xlsx
+++ b/mcm2014/result/summary.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Repos\MCM_Practice\mcm2014\result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13742734-138D-419B-95D6-4BED6D5292FC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12A1ACFF-D024-4921-B2B7-3C00208096F1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="17256" windowHeight="6960" activeTab="1" xr2:uid="{A94B6C84-B2A0-4BA1-89AA-38CEB022ECDA}"/>
+    <workbookView xWindow="0" yWindow="1200" windowWidth="17256" windowHeight="6960" activeTab="2" xr2:uid="{A94B6C84-B2A0-4BA1-89AA-38CEB022ECDA}"/>
   </bookViews>
   <sheets>
     <sheet name="rv" sheetId="1" r:id="rId1"/>
-    <sheet name="rv_" sheetId="2" r:id="rId2"/>
+    <sheet name="sl" sheetId="3" r:id="rId2"/>
+    <sheet name="lc" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,9 +27,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>rv</t>
+    <t>sl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -111,43 +116,1711 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>rv!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>rv!$B$2:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>8510.6879999999892</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10169.5959999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11420.763999999899</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10770.327999999899</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10598.5999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11372.675999999899</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11236.647999999899</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10874.655999999901</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11061.547999999901</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11351.8999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-04DF-43C8-9772-DFA0FA597595}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>rv!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>rv!$C$2:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>6023.0680000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7114.1399999999903</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7464.2719999999899</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7828.9039999999904</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7642.9879999999903</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7155.5119999999897</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7610.3759999999902</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7299.6319999999896</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7071.57599999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7121.6120000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-04DF-43C8-9772-DFA0FA597595}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>3</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>rv!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>rv!$D$2:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>4619.3239999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5240.8279999999904</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6089.9199999999901</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5681.2439999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5315.4759999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6192.2439999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5540.7120000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5422.7560000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5390.8279999999904</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5590.42</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-04DF-43C8-9772-DFA0FA597595}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>4</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>rv!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>rv!$E$2:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3499.1239999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4422.2920000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4177.5360000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4684.0879999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4455.4480000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4325.2439999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4870.0079999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4653.6719999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4363.1639999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5007.4719999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-04DF-43C8-9772-DFA0FA597595}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>5</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>rv!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>rv!$F$2:$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3124.76</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3584.3440000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4158.6279999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3384.1320000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4022.0239999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3968.76</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3725.08</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4196.0680000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3936.3679999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3562.7159999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-04DF-43C8-9772-DFA0FA597595}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>10</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>rv!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>rv!$G$2:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1297.4760000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2372.7959999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2357.6039999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1833.2919999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1705.74799999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1988.748</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1955.2759999999901</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2053.3119999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1958.74</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2142.3759999999902</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-04DF-43C8-9772-DFA0FA597595}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>15</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>rv!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>rv!$H$2:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1115.9199999999901</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1333.7839999999901</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1109.7839999999901</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1767.6559999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1466.23999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1458.74799999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1332.7919999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1083.9559999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1215.7840000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1285.22</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-04DF-43C8-9772-DFA0FA597595}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:v>20</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>rv!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>rv!$I$2:$I$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>823.428</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1025.4559999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>787.048</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>817.15599999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>636.18399999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>895.59199999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>974.85599999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1134.048</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1370.3199999999899</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1235.72</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-04DF-43C8-9772-DFA0FA597595}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:v>25</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>rv!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>rv!$J$2:$J$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>632.76400000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>914.89999999999895</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>728.77599999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>855.89199999999903</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>800.29199999999901</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>829.15599999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>803.32799999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>882.61199999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1144.6479999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>626.35599999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-04DF-43C8-9772-DFA0FA597595}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:v>30</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>rv!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>rv!$K$2:$K$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>728.22799999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>730.81200000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>790.219999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>752.12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>797.048</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>762.39199999999903</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>567.17600000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>892.75599999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>591.048</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>777.94799999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-04DF-43C8-9772-DFA0FA597595}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:v>35</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>rv!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>rv!$L$2:$L$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>477.82799999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>619.34799999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>483</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>502.22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>764.66399999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>805.76399999999899</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>526.82799999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>513.19199999999898</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>604.28399999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>361.62</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-04DF-43C8-9772-DFA0FA597595}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:v>40</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>rv!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>rv!$M$2:$M$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>410.45600000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>461.09199999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>457.991999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>593.41999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>571.12800000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>575.52</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>492.72799999999899</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>404.69200000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>622.49199999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>636.70000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-04DF-43C8-9772-DFA0FA597595}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:v>45</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>rv!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>rv!$N$2:$N$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>323.66399999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>408.69200000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>612.26400000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>625.16399999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>489.19999999999902</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>545.59199999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>502.16399999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>367.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>444.69200000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>487.39199999999897</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-04DF-43C8-9772-DFA0FA597595}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="13"/>
+          <c:tx>
+            <c:v>50</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>rv!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>rv!$O$2:$O$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>379.928</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>366.66399999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>367.82799999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>416.06400000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>440.16399999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>352.428</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>555.95600000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>467.72800000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>264.29199999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>267.16399999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-04DF-43C8-9772-DFA0FA597595}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="462089744"/>
+        <c:axId val="462096304"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="462089744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="0" baseline="0">
-                <a:gradFill>
-                  <a:gsLst>
-                    <a:gs pos="0">
-                      <a:schemeClr val="dk1">
-                        <a:lumMod val="50000"/>
-                        <a:lumOff val="50000"/>
-                      </a:schemeClr>
-                    </a:gs>
-                    <a:gs pos="100000">
-                      <a:schemeClr val="dk1">
-                        <a:lumMod val="85000"/>
-                        <a:lumOff val="15000"/>
-                      </a:schemeClr>
-                    </a:gs>
-                  </a:gsLst>
-                  <a:lin ang="5400000" scaled="0"/>
-                </a:gradFill>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Perform in different  load</a:t>
-            </a:r>
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
-        </c:rich>
-      </c:tx>
+        </c:txPr>
+        <c:crossAx val="462096304"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="462096304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="462089744"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -197,6 +1870,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>80</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
               <a:solidFill>
@@ -278,90 +1954,78 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>rv!$B$1:$O$1</c:f>
+              <c:f>sl!$A$2:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10</c:v>
+                  <c:v>6000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15</c:v>
+                  <c:v>7000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>25</c:v>
+                  <c:v>9000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>50</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>rv!$B$2:$B$11</c:f>
+              <c:f>sl!$B$2:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>8510.6879999999892</c:v>
+                  <c:v>1658.4759999999901</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10169.5959999999</c:v>
+                  <c:v>2210.2039999999902</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11420.763999999899</c:v>
+                  <c:v>2140.3760000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10770.327999999899</c:v>
+                  <c:v>2406.3319999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10598.5999999999</c:v>
+                  <c:v>2094.404</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11372.675999999899</c:v>
+                  <c:v>1801.18399999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11236.647999999899</c:v>
+                  <c:v>2342.712</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10874.655999999901</c:v>
+                  <c:v>1842.12399999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11061.547999999901</c:v>
+                  <c:v>1871.3039999999901</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11351.8999999999</c:v>
+                  <c:v>2145.8399999999901</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -369,13 +2033,16 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5EEB-4901-BC7C-E2879022592F}"/>
+              <c16:uniqueId val="{00000000-6B20-4484-90F0-C053EE4790A5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>90</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
               <a:solidFill>
@@ -457,90 +2124,78 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>rv!$B$1:$O$1</c:f>
+              <c:f>sl!$A$2:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10</c:v>
+                  <c:v>6000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15</c:v>
+                  <c:v>7000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>25</c:v>
+                  <c:v>9000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>50</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>rv!$C$2:$C$11</c:f>
+              <c:f>sl!$C$2:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>6023.0680000000002</c:v>
+                  <c:v>1456.6959999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7114.1399999999903</c:v>
+                  <c:v>2065.4759999999901</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7464.2719999999899</c:v>
+                  <c:v>2631.2840000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7828.9039999999904</c:v>
+                  <c:v>1646.4679999999901</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7642.9879999999903</c:v>
+                  <c:v>1726.37599999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7155.5119999999897</c:v>
+                  <c:v>2030.4960000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7610.3759999999902</c:v>
+                  <c:v>1684.73999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7299.6319999999896</c:v>
+                  <c:v>2309.348</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7071.57599999999</c:v>
+                  <c:v>1493.51999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7121.6120000000001</c:v>
+                  <c:v>2473.04</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -548,13 +2203,16 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-5EEB-4901-BC7C-E2879022592F}"/>
+              <c16:uniqueId val="{00000001-6B20-4484-90F0-C053EE4790A5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
+          <c:tx>
+            <c:v>100</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
               <a:solidFill>
@@ -636,90 +2294,78 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>rv!$B$1:$O$1</c:f>
+              <c:f>sl!$A$2:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10</c:v>
+                  <c:v>6000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15</c:v>
+                  <c:v>7000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>25</c:v>
+                  <c:v>9000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>50</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>rv!$D$2:$D$11</c:f>
+              <c:f>sl!$D$2:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>4619.3239999999996</c:v>
+                  <c:v>1297.4760000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5240.8279999999904</c:v>
+                  <c:v>2372.7959999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6089.9199999999901</c:v>
+                  <c:v>2357.6039999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5681.2439999999997</c:v>
+                  <c:v>1833.2919999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5315.4759999999997</c:v>
+                  <c:v>1705.74799999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6192.2439999999997</c:v>
+                  <c:v>1988.748</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5540.7120000000004</c:v>
+                  <c:v>1955.2759999999901</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5422.7560000000003</c:v>
+                  <c:v>2053.3119999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5390.8279999999904</c:v>
+                  <c:v>1958.74</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5590.42</c:v>
+                  <c:v>2142.3759999999902</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -727,13 +2373,16 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-5EEB-4901-BC7C-E2879022592F}"/>
+              <c16:uniqueId val="{00000002-6B20-4484-90F0-C053EE4790A5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
+          <c:tx>
+            <c:v>110</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
               <a:solidFill>
@@ -815,90 +2464,78 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>rv!$B$1:$O$1</c:f>
+              <c:f>sl!$A$2:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10</c:v>
+                  <c:v>6000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15</c:v>
+                  <c:v>7000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>25</c:v>
+                  <c:v>9000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>50</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>rv!$E$2:$E$11</c:f>
+              <c:f>sl!$E$2:$E$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>3499.1239999999998</c:v>
+                  <c:v>1167.74799999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4422.2920000000004</c:v>
+                  <c:v>2158.4760000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4177.5360000000001</c:v>
+                  <c:v>1822.5119999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4684.0879999999997</c:v>
+                  <c:v>1867.1599999999901</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4455.4480000000003</c:v>
+                  <c:v>1989.212</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4325.2439999999997</c:v>
+                  <c:v>1876.6479999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4870.0079999999998</c:v>
+                  <c:v>1947.1119999999901</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4653.6719999999996</c:v>
+                  <c:v>1561.3399999999899</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4363.1639999999998</c:v>
+                  <c:v>1756.7839999999901</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5007.4719999999998</c:v>
+                  <c:v>2129.1680000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -906,13 +2543,16 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-5EEB-4901-BC7C-E2879022592F}"/>
+              <c16:uniqueId val="{00000003-6B20-4484-90F0-C053EE4790A5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
           <c:order val="4"/>
+          <c:tx>
+            <c:v>120</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
               <a:solidFill>
@@ -994,90 +2634,78 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>rv!$B$1:$O$1</c:f>
+              <c:f>sl!$A$2:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10</c:v>
+                  <c:v>6000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15</c:v>
+                  <c:v>7000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>25</c:v>
+                  <c:v>9000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>50</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>rv!$F$2:$F$11</c:f>
+              <c:f>sl!$F$2:$F$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>3124.76</c:v>
+                  <c:v>1609.876</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3584.3440000000001</c:v>
+                  <c:v>2022.02</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4158.6279999999997</c:v>
+                  <c:v>2218.71199999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3384.1320000000001</c:v>
+                  <c:v>2275.3960000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4022.0239999999999</c:v>
+                  <c:v>1921.4959999999901</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3968.76</c:v>
+                  <c:v>2083.21199999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3725.08</c:v>
+                  <c:v>2022.896</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4196.0680000000002</c:v>
+                  <c:v>2180.268</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3936.3679999999999</c:v>
+                  <c:v>1968.2760000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3562.7159999999999</c:v>
+                  <c:v>2009.556</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1085,1646 +2713,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-5EEB-4901-BC7C-E2879022592F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:shade val="95000"/>
-                  <a:satMod val="105000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="17"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="accent6"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="dk1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>rv!$B$1:$O$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>50</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>rv!$G$2:$G$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1297.4760000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2372.7959999999998</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2357.6039999999998</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1833.2919999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1705.74799999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1988.748</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1955.2759999999901</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2053.3119999999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1958.74</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2142.3759999999902</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-5EEB-4901-BC7C-E2879022592F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                  <a:shade val="95000"/>
-                  <a:satMod val="105000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="17"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1">
-                        <a:lumMod val="60000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="dk1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>rv!$B$1:$O$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>50</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>rv!$H$2:$H$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1115.9199999999901</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1333.7839999999901</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1109.7839999999901</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1767.6559999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1466.23999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1458.74799999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1332.7919999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1083.9559999999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1215.7840000000001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1285.22</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-5EEB-4901-BC7C-E2879022592F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                  <a:shade val="95000"/>
-                  <a:satMod val="105000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="17"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="accent2">
-                        <a:lumMod val="60000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="dk1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>rv!$B$1:$O$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>50</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>rv!$I$2:$I$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>823.428</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1025.4559999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>787.048</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>817.15599999999995</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>636.18399999999997</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>895.59199999999998</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>974.85599999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1134.048</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1370.3199999999899</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1235.72</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-5EEB-4901-BC7C-E2879022592F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                  <a:shade val="95000"/>
-                  <a:satMod val="105000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="17"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="accent3">
-                        <a:lumMod val="60000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="dk1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>rv!$B$1:$O$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>50</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>rv!$J$2:$J$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>632.76400000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>914.89999999999895</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>728.77599999999995</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>855.89199999999903</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>800.29199999999901</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>829.15599999999995</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>803.32799999999997</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>882.61199999999997</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1144.6479999999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>626.35599999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-5EEB-4901-BC7C-E2879022592F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="9"/>
-          <c:order val="9"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
-                  <a:shade val="95000"/>
-                  <a:satMod val="105000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="17"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="accent4">
-                        <a:lumMod val="60000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="dk1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>rv!$B$1:$O$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>50</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>rv!$K$2:$K$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>728.22799999999995</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>730.81200000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>790.219999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>752.12</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>797.048</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>762.39199999999903</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>567.17600000000004</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>892.75599999999997</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>591.048</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>777.94799999999998</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-5EEB-4901-BC7C-E2879022592F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="10"/>
-          <c:order val="10"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="60000"/>
-                  <a:shade val="95000"/>
-                  <a:satMod val="105000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="17"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="accent5">
-                        <a:lumMod val="60000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="dk1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>rv!$B$1:$O$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>50</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>rv!$L$2:$L$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>477.82799999999997</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>619.34799999999996</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>483</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>502.22</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>764.66399999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>805.76399999999899</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>526.82799999999997</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>513.19199999999898</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>604.28399999999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>361.62</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000012-5EEB-4901-BC7C-E2879022592F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="11"/>
-          <c:order val="11"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="60000"/>
-                  <a:shade val="95000"/>
-                  <a:satMod val="105000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="17"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="accent6">
-                        <a:lumMod val="60000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="dk1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>rv!$B$1:$O$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>50</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>rv!$M$2:$M$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>410.45600000000002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>461.09199999999998</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>457.991999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>593.41999999999996</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>571.12800000000004</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>575.52</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>492.72799999999899</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>404.69200000000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>622.49199999999996</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>636.70000000000005</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000013-5EEB-4901-BC7C-E2879022592F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="12"/>
-          <c:order val="12"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                  <a:shade val="95000"/>
-                  <a:satMod val="105000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="17"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1">
-                        <a:lumMod val="80000"/>
-                        <a:lumOff val="20000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="dk1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>rv!$B$1:$O$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>50</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>rv!$N$2:$N$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>323.66399999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>408.69200000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>612.26400000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>625.16399999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>489.19999999999902</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>545.59199999999998</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>502.16399999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>367.3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>444.69200000000001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>487.39199999999897</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000014-5EEB-4901-BC7C-E2879022592F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="13"/>
-          <c:order val="13"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                  <a:shade val="95000"/>
-                  <a:satMod val="105000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="17"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="accent2">
-                        <a:lumMod val="80000"/>
-                        <a:lumOff val="20000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="dk1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>rv!$B$1:$O$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>50</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>rv!$O$2:$O$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>379.928</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>366.66399999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>367.82799999999997</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>416.06400000000002</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>440.16399999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>352.428</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>555.95600000000002</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>467.72800000000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>264.29199999999997</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>267.16399999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000015-5EEB-4901-BC7C-E2879022592F}"/>
+              <c16:uniqueId val="{00000004-6B20-4484-90F0-C053EE4790A5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2739,11 +2728,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="668865408"/>
-        <c:axId val="668864096"/>
+        <c:axId val="462076624"/>
+        <c:axId val="462078264"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="668865408"/>
+        <c:axId val="462076624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2786,7 +2775,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="668864096"/>
+        <c:crossAx val="462078264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2794,17 +2783,44 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="668864096"/>
+        <c:axId val="462078264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="1"/>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="668865408"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="462076624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2817,7 +2833,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="r"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2876,6 +2892,771 @@
       <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>lc!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>lc!$B$2:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1557.184</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1754.712</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1913.4479999999901</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2330.3319999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2105.1119999999901</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1963.84799999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1856.60399999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2174.0039999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2149.74799999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1884.9960000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-693E-40F0-A2E8-D5B98A09A006}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>lc!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>lc!$C$2:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1297.4760000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2372.7959999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2357.6039999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1833.2919999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1705.74799999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1988.748</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1955.2759999999901</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2053.3119999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1958.74</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2142.3759999999902</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-693E-40F0-A2E8-D5B98A09A006}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>3</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>lc!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>lc!$D$2:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1647.05599999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1859.24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2159.6759999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2055.2239999999902</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2113.4119999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2643.8119999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2105.59599999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2291.1759999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1986.748</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2361.7840000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-693E-40F0-A2E8-D5B98A09A006}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>4</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>lc!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>lc!$E$2:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1570.048</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1987.53999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2047.348</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2062.8319999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2056.8119999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1830.6679999999899</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1811.704</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2305.7759999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2272.7399999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1779.07599999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-693E-40F0-A2E8-D5B98A09A006}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>5</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>lc!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>lc!$F$2:$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1206.848</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1903.3119999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2379.8040000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2127.6759999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2188.6759999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2462.44</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2013.7840000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1541.6679999999899</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2084.8760000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2175.26799999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-693E-40F0-A2E8-D5B98A09A006}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="458090456"/>
+        <c:axId val="458085864"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="458090456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="458085864"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="458085864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="458090456"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -2919,7 +3700,603 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="234">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3429,34 +4806,547 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{61169F51-3DF8-4860-A146-D474EDE823AD}">
-  <sheetPr/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" workbookViewId="0" zoomToFit="1"/>
-  </sheetViews>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</chartsheet>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9298112" cy="6070315"/>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8E76088-A456-4252-A491-B1E99E3CCCC3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4BDA9D1-A627-4349-B013-9AD88963CB7F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -3469,7 +5359,89 @@
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
-  </xdr:absoluteAnchor>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91737708-5923-4F18-A038-AEC9574BC91A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABCAD8C3-C326-49C7-ACB9-136FFD7D7413}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3773,7 +5745,7 @@
   <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="B2" sqref="B2:O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3785,9 +5757,6 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
       <c r="B1">
         <v>1</v>
       </c>
@@ -4304,5 +6273,480 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FF4DFE9-D3B9-469A-8925-9F554E25031B}">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>80</v>
+      </c>
+      <c r="C1">
+        <v>90</v>
+      </c>
+      <c r="D1">
+        <v>100</v>
+      </c>
+      <c r="E1">
+        <v>110</v>
+      </c>
+      <c r="F1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1000</v>
+      </c>
+      <c r="B2">
+        <v>1658.4759999999901</v>
+      </c>
+      <c r="C2">
+        <v>1456.6959999999999</v>
+      </c>
+      <c r="D2">
+        <v>1297.4760000000001</v>
+      </c>
+      <c r="E2">
+        <v>1167.74799999999</v>
+      </c>
+      <c r="F2">
+        <v>1609.876</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2000</v>
+      </c>
+      <c r="B3">
+        <v>2210.2039999999902</v>
+      </c>
+      <c r="C3">
+        <v>2065.4759999999901</v>
+      </c>
+      <c r="D3">
+        <v>2372.7959999999998</v>
+      </c>
+      <c r="E3">
+        <v>2158.4760000000001</v>
+      </c>
+      <c r="F3">
+        <v>2022.02</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3000</v>
+      </c>
+      <c r="B4">
+        <v>2140.3760000000002</v>
+      </c>
+      <c r="C4">
+        <v>2631.2840000000001</v>
+      </c>
+      <c r="D4">
+        <v>2357.6039999999998</v>
+      </c>
+      <c r="E4">
+        <v>1822.5119999999999</v>
+      </c>
+      <c r="F4">
+        <v>2218.71199999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4000</v>
+      </c>
+      <c r="B5">
+        <v>2406.3319999999999</v>
+      </c>
+      <c r="C5">
+        <v>1646.4679999999901</v>
+      </c>
+      <c r="D5">
+        <v>1833.2919999999999</v>
+      </c>
+      <c r="E5">
+        <v>1867.1599999999901</v>
+      </c>
+      <c r="F5">
+        <v>2275.3960000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5000</v>
+      </c>
+      <c r="B6">
+        <v>2094.404</v>
+      </c>
+      <c r="C6">
+        <v>1726.37599999999</v>
+      </c>
+      <c r="D6">
+        <v>1705.74799999999</v>
+      </c>
+      <c r="E6">
+        <v>1989.212</v>
+      </c>
+      <c r="F6">
+        <v>1921.4959999999901</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6000</v>
+      </c>
+      <c r="B7">
+        <v>1801.18399999999</v>
+      </c>
+      <c r="C7">
+        <v>2030.4960000000001</v>
+      </c>
+      <c r="D7">
+        <v>1988.748</v>
+      </c>
+      <c r="E7">
+        <v>1876.6479999999999</v>
+      </c>
+      <c r="F7">
+        <v>2083.21199999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7000</v>
+      </c>
+      <c r="B8">
+        <v>2342.712</v>
+      </c>
+      <c r="C8">
+        <v>1684.73999999999</v>
+      </c>
+      <c r="D8">
+        <v>1955.2759999999901</v>
+      </c>
+      <c r="E8">
+        <v>1947.1119999999901</v>
+      </c>
+      <c r="F8">
+        <v>2022.896</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8000</v>
+      </c>
+      <c r="B9">
+        <v>1842.12399999999</v>
+      </c>
+      <c r="C9">
+        <v>2309.348</v>
+      </c>
+      <c r="D9">
+        <v>2053.3119999999999</v>
+      </c>
+      <c r="E9">
+        <v>1561.3399999999899</v>
+      </c>
+      <c r="F9">
+        <v>2180.268</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9000</v>
+      </c>
+      <c r="B10">
+        <v>1871.3039999999901</v>
+      </c>
+      <c r="C10">
+        <v>1493.51999999999</v>
+      </c>
+      <c r="D10">
+        <v>1958.74</v>
+      </c>
+      <c r="E10">
+        <v>1756.7839999999901</v>
+      </c>
+      <c r="F10">
+        <v>1968.2760000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10000</v>
+      </c>
+      <c r="B11">
+        <v>2145.8399999999901</v>
+      </c>
+      <c r="C11">
+        <v>2473.04</v>
+      </c>
+      <c r="D11">
+        <v>2142.3759999999902</v>
+      </c>
+      <c r="E11">
+        <v>2129.1680000000001</v>
+      </c>
+      <c r="F11">
+        <v>2009.556</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50A410A2-D207-492A-8163-328D21EE3CD1}">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+      <c r="F1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1000</v>
+      </c>
+      <c r="B2">
+        <v>1557.184</v>
+      </c>
+      <c r="C2">
+        <v>1297.4760000000001</v>
+      </c>
+      <c r="D2">
+        <v>1647.05599999999</v>
+      </c>
+      <c r="E2">
+        <v>1570.048</v>
+      </c>
+      <c r="F2">
+        <v>1206.848</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2000</v>
+      </c>
+      <c r="B3">
+        <v>1754.712</v>
+      </c>
+      <c r="C3">
+        <v>2372.7959999999998</v>
+      </c>
+      <c r="D3">
+        <v>1859.24</v>
+      </c>
+      <c r="E3">
+        <v>1987.53999999999</v>
+      </c>
+      <c r="F3">
+        <v>1903.3119999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3000</v>
+      </c>
+      <c r="B4">
+        <v>1913.4479999999901</v>
+      </c>
+      <c r="C4">
+        <v>2357.6039999999998</v>
+      </c>
+      <c r="D4">
+        <v>2159.6759999999999</v>
+      </c>
+      <c r="E4">
+        <v>2047.348</v>
+      </c>
+      <c r="F4">
+        <v>2379.8040000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4000</v>
+      </c>
+      <c r="B5">
+        <v>2330.3319999999999</v>
+      </c>
+      <c r="C5">
+        <v>1833.2919999999999</v>
+      </c>
+      <c r="D5">
+        <v>2055.2239999999902</v>
+      </c>
+      <c r="E5">
+        <v>2062.8319999999999</v>
+      </c>
+      <c r="F5">
+        <v>2127.6759999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5000</v>
+      </c>
+      <c r="B6">
+        <v>2105.1119999999901</v>
+      </c>
+      <c r="C6">
+        <v>1705.74799999999</v>
+      </c>
+      <c r="D6">
+        <v>2113.4119999999998</v>
+      </c>
+      <c r="E6">
+        <v>2056.8119999999999</v>
+      </c>
+      <c r="F6">
+        <v>2188.6759999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6000</v>
+      </c>
+      <c r="B7">
+        <v>1963.84799999999</v>
+      </c>
+      <c r="C7">
+        <v>1988.748</v>
+      </c>
+      <c r="D7">
+        <v>2643.8119999999999</v>
+      </c>
+      <c r="E7">
+        <v>1830.6679999999899</v>
+      </c>
+      <c r="F7">
+        <v>2462.44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7000</v>
+      </c>
+      <c r="B8">
+        <v>1856.60399999999</v>
+      </c>
+      <c r="C8">
+        <v>1955.2759999999901</v>
+      </c>
+      <c r="D8">
+        <v>2105.59599999999</v>
+      </c>
+      <c r="E8">
+        <v>1811.704</v>
+      </c>
+      <c r="F8">
+        <v>2013.7840000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8000</v>
+      </c>
+      <c r="B9">
+        <v>2174.0039999999999</v>
+      </c>
+      <c r="C9">
+        <v>2053.3119999999999</v>
+      </c>
+      <c r="D9">
+        <v>2291.1759999999999</v>
+      </c>
+      <c r="E9">
+        <v>2305.7759999999998</v>
+      </c>
+      <c r="F9">
+        <v>1541.6679999999899</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9000</v>
+      </c>
+      <c r="B10">
+        <v>2149.74799999999</v>
+      </c>
+      <c r="C10">
+        <v>1958.74</v>
+      </c>
+      <c r="D10">
+        <v>1986.748</v>
+      </c>
+      <c r="E10">
+        <v>2272.7399999999998</v>
+      </c>
+      <c r="F10">
+        <v>2084.8760000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10000</v>
+      </c>
+      <c r="B11">
+        <v>1884.9960000000001</v>
+      </c>
+      <c r="C11">
+        <v>2142.3759999999902</v>
+      </c>
+      <c r="D11">
+        <v>2361.7840000000001</v>
+      </c>
+      <c r="E11">
+        <v>1779.07599999999</v>
+      </c>
+      <c r="F11">
+        <v>2175.26799999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>